--- a/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2021-08-18.xlsx
+++ b/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2021-08-18.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="28" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="42">
   <si>
     <t>Secteur</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Taxi beach</t>
   </si>
   <si>
-    <t>Taxi baot (popeye /saleccia)</t>
+    <t>Taxi boat (popeye/saleccia)</t>
   </si>
   <si>
     <t>Taxi plage</t>
@@ -88,7 +88,7 @@
     <t>Speed boat</t>
   </si>
   <si>
-    <t>Autres Sociétés</t>
+    <t>Autres sociétés</t>
   </si>
   <si>
     <t>Particuliers</t>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Accoste dans les banquettes de Posidonie près du ponton</t>
-  </si>
-  <si>
-    <t>Taxi baot (popeye/saleccia)</t>
   </si>
   <si>
     <t>Toujours toutes les heures avec deux taxi-boat arrivant en même temps</t>
@@ -1397,7 +1394,7 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3452,7 +3449,7 @@
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3534,7 +3531,7 @@
     <row r="4" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -3607,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3782,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -3994,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -4041,7 +4038,7 @@
     <row r="30" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -4114,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -4174,7 +4171,7 @@
         <v>5</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -4253,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4300,7 +4297,7 @@
     <row r="43" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A43" s="3"/>
       <c r="B43" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C43" s="5">
         <v>0</v>
@@ -4553,7 +4550,7 @@
     <row r="56" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C56" s="5">
         <v>0</v>
@@ -4683,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4806,7 +4803,7 @@
     <row r="69" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A69" s="3"/>
       <c r="B69" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C69" s="5">
         <v>0</v>
@@ -4937,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5061,7 +5058,7 @@
     <row r="82" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A82" s="3"/>
       <c r="B82" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C82" s="5">
         <v>0</v>
@@ -5314,7 +5311,7 @@
     <row r="95" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A95" s="3"/>
       <c r="B95" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C95" s="5">
         <v>0</v>
